--- a/perl/ex/pl/temp1.xlsx
+++ b/perl/ex/pl/temp1.xlsx
@@ -7,42 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>One</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,10 +45,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,6 +54,60 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,21 +395,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>